--- a/supporting/data/icon-maker-master.xlsx
+++ b/supporting/data/icon-maker-master.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="2440" yWindow="460" windowWidth="27880" windowHeight="25340"/>
   </bookViews>
   <sheets>
-    <sheet name="All-Combined" sheetId="1" r:id="rId1"/>
+    <sheet name="icon-maker.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -4022,48 +4022,27 @@
     <t>technology, dev, code, develop</t>
   </si>
   <si>
-    <t>lmSet</t>
-  </si>
-  <si>
     <t>sports, american</t>
   </si>
   <si>
-    <t>fa icon-ball-baseball</t>
-  </si>
-  <si>
     <t>Baseball</t>
   </si>
   <si>
-    <t>fa icon-ball-football</t>
-  </si>
-  <si>
     <t>Baseball Bats</t>
   </si>
   <si>
-    <t>fa icon-baseball-bats</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
-    <t>fa icon-ber-2</t>
-  </si>
-  <si>
     <t>fa icon-berlin</t>
   </si>
   <si>
     <t>Baseball Helmut</t>
   </si>
   <si>
-    <t>fa icon-helmut-baseball</t>
-  </si>
-  <si>
     <t>Football Helmut</t>
   </si>
   <si>
-    <t>fa icon-helmut-football</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -4401,6 +4380,27 @@
   </si>
   <si>
     <t>fa fa-yoast</t>
+  </si>
+  <si>
+    <t>mdSet</t>
+  </si>
+  <si>
+    <t>fa icon-helmut</t>
+  </si>
+  <si>
+    <t>fa icon-hardhat</t>
+  </si>
+  <si>
+    <t>fa icon-gate</t>
+  </si>
+  <si>
+    <t>fa icon-bats</t>
+  </si>
+  <si>
+    <t>fa icon-football</t>
+  </si>
+  <si>
+    <t>fa icon-baseball</t>
   </si>
 </sst>
 </file>
@@ -4681,69 +4681,6 @@
   <dxfs count="12">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="9"/>
-        </left>
-        <right style="thin">
-          <color indexed="9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4952,13 +4889,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="9"/>
         </left>
@@ -4973,11 +4903,81 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="9"/>
+        </left>
+        <right style="thin">
+          <color indexed="9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="Table Style 1" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5057,17 +5057,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E735" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E735" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E735"/>
   <sortState ref="A2:E621">
     <sortCondition ref="B1:B621"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="name" dataDxfId="8"/>
-    <tableColumn id="2" name="symbol" dataDxfId="7"/>
-    <tableColumn id="3" name="category" dataDxfId="6"/>
-    <tableColumn id="4" name="set" dataDxfId="5"/>
-    <tableColumn id="5" name="keywords" dataDxfId="4"/>
+    <tableColumn id="1" name="name" dataDxfId="4"/>
+    <tableColumn id="2" name="symbol" dataDxfId="3"/>
+    <tableColumn id="3" name="category" dataDxfId="2"/>
+    <tableColumn id="4" name="set" dataDxfId="1"/>
+    <tableColumn id="5" name="keywords" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6182,8 +6182,8 @@
   </sheetPr>
   <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A684" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="D723" sqref="D723"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
+      <selection activeCell="B726" sqref="B726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11461,10 +11461,10 @@
     </row>
     <row r="318" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="20" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>18</v>
@@ -11476,10 +11476,10 @@
     </row>
     <row r="319" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="20" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>18</v>
@@ -11545,7 +11545,7 @@
         <v>560</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>15</v>
@@ -11562,7 +11562,7 @@
         <v>560</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>15</v>
@@ -11644,10 +11644,10 @@
     </row>
     <row r="329" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="20" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>18</v>
@@ -11662,7 +11662,7 @@
         <v>787</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>18</v>
@@ -11710,10 +11710,10 @@
     </row>
     <row r="333" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="20" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>18</v>
@@ -11906,10 +11906,10 @@
     </row>
     <row r="345" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="20" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>60</v>
@@ -11923,13 +11923,13 @@
     </row>
     <row r="346" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="20" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="C346" s="21" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="D346" s="21" t="s">
         <v>8</v>
@@ -12244,10 +12244,10 @@
     </row>
     <row r="365" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="20" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>18</v>
@@ -12256,15 +12256,15 @@
         <v>8</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="20" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>18</v>
@@ -12273,15 +12273,15 @@
         <v>8</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="20" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>18</v>
@@ -12290,7 +12290,7 @@
         <v>8</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -12312,10 +12312,10 @@
     </row>
     <row r="369" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="20" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>18</v>
@@ -12324,18 +12324,18 @@
         <v>8</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="20" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>8</v>
@@ -12886,10 +12886,10 @@
     </row>
     <row r="403" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="20" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="B403" s="21" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="C403" s="21" t="s">
         <v>28</v>
@@ -13088,13 +13088,13 @@
     </row>
     <row r="415" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="20" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="B415" s="21" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="C415" s="21" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="D415" s="21" t="s">
         <v>8</v>
@@ -13139,10 +13139,10 @@
     </row>
     <row r="418" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="20" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="B418" s="21" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="C418" s="21" t="s">
         <v>18</v>
@@ -13154,10 +13154,10 @@
     </row>
     <row r="419" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>18</v>
@@ -13437,10 +13437,10 @@
     </row>
     <row r="436" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="20" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="B436" s="21" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="C436" s="21" t="s">
         <v>15</v>
@@ -13486,10 +13486,10 @@
     </row>
     <row r="439" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="20" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="B439" s="21" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="C439" s="21" t="s">
         <v>28</v>
@@ -13625,7 +13625,7 @@
         <v>769</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>28</v>
@@ -14293,7 +14293,7 @@
         <v>836</v>
       </c>
       <c r="B487" s="21" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>15</v>
@@ -14526,10 +14526,10 @@
     </row>
     <row r="501" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="20" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="B501" s="21" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="C501" s="21" t="s">
         <v>7</v>
@@ -14679,10 +14679,10 @@
     </row>
     <row r="510" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="20" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="B510" s="21" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="C510" s="21" t="s">
         <v>18</v>
@@ -14745,10 +14745,10 @@
     </row>
     <row r="514" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="20" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="B514" s="21" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="C514" s="21" t="s">
         <v>18</v>
@@ -15205,7 +15205,7 @@
         <v>928</v>
       </c>
       <c r="B541" s="21" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="C541" s="21" t="s">
         <v>18</v>
@@ -15372,10 +15372,10 @@
     </row>
     <row r="551" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="20" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="B551" s="21" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="C551" s="21" t="s">
         <v>181</v>
@@ -15384,7 +15384,7 @@
         <v>8</v>
       </c>
       <c r="E551" s="22" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -15423,10 +15423,10 @@
     </row>
     <row r="554" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="20" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="B554" s="21" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="C554" s="21" t="s">
         <v>18</v>
@@ -15591,10 +15591,10 @@
     </row>
     <row r="564" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="20" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="B564" s="21" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>15</v>
@@ -15608,10 +15608,10 @@
     </row>
     <row r="565" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="20" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="B565" s="21" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>15</v>
@@ -15625,10 +15625,10 @@
     </row>
     <row r="566" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="20" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="B566" s="21" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>15</v>
@@ -15642,10 +15642,10 @@
     </row>
     <row r="567" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="20" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="B567" s="21" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="C567" s="21" t="s">
         <v>494</v>
@@ -16367,10 +16367,10 @@
     </row>
     <row r="610" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="20" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="B610" s="21" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="C610" s="21" t="s">
         <v>18</v>
@@ -16518,10 +16518,10 @@
     </row>
     <row r="619" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="20" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="B619" s="21" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="C619" s="21" t="s">
         <v>181</v>
@@ -16669,10 +16669,10 @@
     </row>
     <row r="628" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="20" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="B628" s="21" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>18</v>
@@ -16686,10 +16686,10 @@
     </row>
     <row r="629" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="20" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="B629" s="21" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>18</v>
@@ -16703,10 +16703,10 @@
     </row>
     <row r="630" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="20" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="B630" s="21" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>18</v>
@@ -16720,10 +16720,10 @@
     </row>
     <row r="631" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="20" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="B631" s="21" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>18</v>
@@ -16737,10 +16737,10 @@
     </row>
     <row r="632" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="20" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="B632" s="21" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>18</v>
@@ -16754,10 +16754,10 @@
     </row>
     <row r="633" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="20" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="B633" s="21" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>18</v>
@@ -16774,7 +16774,7 @@
         <v>1070</v>
       </c>
       <c r="B634" s="21" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="C634" s="21" t="s">
         <v>18</v>
@@ -17044,7 +17044,7 @@
         <v>1098</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="C650" s="3" t="s">
         <v>18</v>
@@ -17330,10 +17330,10 @@
     </row>
     <row r="667" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="20" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="B667" s="21" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>18</v>
@@ -17486,7 +17486,7 @@
         <v>1141</v>
       </c>
       <c r="B676" s="21" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="C676" s="21" t="s">
         <v>28</v>
@@ -17503,7 +17503,7 @@
         <v>1141</v>
       </c>
       <c r="B677" s="21" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="C677" s="21" t="s">
         <v>28</v>
@@ -17520,7 +17520,7 @@
         <v>1141</v>
       </c>
       <c r="B678" s="21" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="C678" s="21" t="s">
         <v>28</v>
@@ -17687,10 +17687,10 @@
     </row>
     <row r="688" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="20" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="B688" s="21" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="C688" s="21" t="s">
         <v>28</v>
@@ -17702,10 +17702,10 @@
     </row>
     <row r="689" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="20" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="B689" s="21" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="C689" s="21" t="s">
         <v>28</v>
@@ -17800,10 +17800,10 @@
     </row>
     <row r="695" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="20" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="B695" s="21" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="C695" s="21" t="s">
         <v>28</v>
@@ -17937,7 +17937,7 @@
         <v>1188</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>18</v>
@@ -17954,7 +17954,7 @@
         <v>1222</v>
       </c>
       <c r="B704" s="21" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="C704" s="21" t="s">
         <v>28</v>
@@ -17966,10 +17966,10 @@
     </row>
     <row r="705" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="20" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="B705" s="21" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="C705" s="21" t="s">
         <v>28</v>
@@ -17981,10 +17981,10 @@
     </row>
     <row r="706" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="20" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="B706" s="21" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="C706" s="21" t="s">
         <v>28</v>
@@ -17996,10 +17996,10 @@
     </row>
     <row r="707" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="20" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="B707" s="21" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="C707" s="21" t="s">
         <v>28</v>
@@ -18014,7 +18014,7 @@
         <v>1079</v>
       </c>
       <c r="B708" s="21" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="C708" s="21" t="s">
         <v>28</v>
@@ -18029,7 +18029,7 @@
         <v>1079</v>
       </c>
       <c r="B709" s="21" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="C709" s="21" t="s">
         <v>28</v>
@@ -18073,10 +18073,10 @@
     </row>
     <row r="712" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="20" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="B712" s="21" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="C712" s="21" t="s">
         <v>28</v>
@@ -18088,10 +18088,10 @@
     </row>
     <row r="713" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="20" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="B713" s="21" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="C713" s="21" t="s">
         <v>28</v>
@@ -18103,10 +18103,10 @@
     </row>
     <row r="714" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="20" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="B714" s="21" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="C714" s="21" t="s">
         <v>28</v>
@@ -18118,10 +18118,10 @@
     </row>
     <row r="715" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="20" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="B715" s="21" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="C715" s="21" t="s">
         <v>28</v>
@@ -18233,10 +18233,10 @@
     </row>
     <row r="722" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="20" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="B722" s="21" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="C722" s="21" t="s">
         <v>28</v>
@@ -18299,19 +18299,19 @@
     </row>
     <row r="726" spans="1:5" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="8" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1333</v>
+        <v>1457</v>
       </c>
       <c r="C726" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D726" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E726" s="12" t="s">
         <v>1331</v>
-      </c>
-      <c r="E726" s="12" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="727" spans="1:5" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -18319,152 +18319,152 @@
         <v>528</v>
       </c>
       <c r="B727" s="28" t="s">
-        <v>1335</v>
+        <v>1456</v>
       </c>
       <c r="C727" s="28" t="s">
         <v>530</v>
       </c>
       <c r="D727" s="28" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E727" s="29" t="s">
         <v>1331</v>
-      </c>
-      <c r="E727" s="29" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="728" spans="1:5" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="8" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1337</v>
+        <v>1455</v>
       </c>
       <c r="C728" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D728" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E728" s="12" t="s">
         <v>1331</v>
-      </c>
-      <c r="E728" s="12" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="729" spans="1:5" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="27" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B729" s="28" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C729" s="28" t="s">
         <v>222</v>
       </c>
       <c r="D729" s="28" t="s">
-        <v>1331</v>
+        <v>1451</v>
       </c>
       <c r="E729" s="29" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="730" spans="1:5" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="8" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1340</v>
+        <v>1454</v>
       </c>
       <c r="C730" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D730" s="4" t="s">
-        <v>1331</v>
+        <v>1451</v>
       </c>
       <c r="E730" s="12" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="731" spans="1:5" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="27" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="B731" s="28" t="s">
-        <v>1342</v>
+        <v>1453</v>
       </c>
       <c r="C731" s="28" t="s">
         <v>530</v>
       </c>
       <c r="D731" s="28" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E731" s="29" t="s">
         <v>1331</v>
-      </c>
-      <c r="E731" s="29" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="732" spans="1:5" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="8" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1344</v>
+        <v>1452</v>
       </c>
       <c r="C732" s="4" t="s">
         <v>530</v>
       </c>
       <c r="D732" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E732" s="12" t="s">
         <v>1331</v>
-      </c>
-      <c r="E732" s="12" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="733" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="20" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="B733" s="21" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="C733" s="21" t="s">
         <v>222</v>
       </c>
       <c r="D733" s="4" t="s">
-        <v>1331</v>
+        <v>1451</v>
       </c>
       <c r="E733" s="22" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="734" spans="1:5" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="8" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="C734" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D734" s="4" t="s">
-        <v>1331</v>
+        <v>1451</v>
       </c>
       <c r="E734" s="12" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="735" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="20" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="B735" s="21" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="C735" s="21" t="s">
         <v>530</v>
       </c>
       <c r="D735" s="4" t="s">
-        <v>1331</v>
+        <v>1451</v>
       </c>
       <c r="E735" s="22" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
